--- a/medicine/Mort/Cimetière_de_Court-Saint-Étienne/Cimetière_de_Court-Saint-Étienne.xlsx
+++ b/medicine/Mort/Cimetière_de_Court-Saint-Étienne/Cimetière_de_Court-Saint-Étienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Court-Saint-Étienne est un cimetière communal situé sur le territoire de la commune belge de Court-Saint-Étienne en Brabant wallon.
 Son monument principal, le Mausolée Goblet d'Alviella, fait l'objet d'un classement au titre des monuments historiques  et comme patrimoine exceptionnel de la Région wallonne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier cimetière situé sur le territoire de la commune remonte à plusieurs millénaires avant l'ère chrétienne[P 1]. On trouve en effet sur le plateau sablonneux de la « Quenique », sur la rive droite de l'Orne[P 1], les traces de tumuli des tribus dites « du Michelsberg » (3 000 ans av. J.-C.). On a découvert à cet endroit, et dans les environs, des tumuli avec mobilier (nécropole à tombelle) ou sans mobilier (nécropole à tombes plates)[P 1]. Un tumulus est figuré sur le premier quartier des armoiries de la commune.
 Durant l'ère chrétienne, les cimetières s'implantent autour des églises : il est cependant impossible de déterminer à quelle époque exacte le cimetière s'est formé autour de l'église Saint-Étienne de Court-Saint-Étienne[P 1]. Ce cimetière paroissial est resté en place jusqu'à la fin du XIXe siècle. Aujourd'hui désaffecté, il abrite encore quelques monuments funéraires ainsi que trois pierres scellées dans le mur de l'église (voir l'article consacré à l'église  Saint-Étienne de Court-Saint-Étienne).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,19 +563,134 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le « cimetière du Centre », longtemps appelé « nouveau cimetière » par les habitants du village, est composé de deux parties : le cimetière de 1885 et une extension plus récente qui en a doublé la superficie. La limite entre les deux parties se remarque au niveau du mur de clôture.
-Sépultures du XIXe siècle
-La partie la plus ancienne du cimetière est riche en sépultures familiales de belle facture caractérisées par le style éclectique qui a marqué le XIXe siècle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le « cimetière du Centre », longtemps appelé « nouveau cimetière » par les habitants du village, est composé de deux parties : le cimetière de 1885 et une extension plus récente qui en a doublé la superficie. La limite entre les deux parties se remarque au niveau du mur de clôture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sépultures du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie la plus ancienne du cimetière est riche en sépultures familiales de belle facture caractérisées par le style éclectique qui a marqué le XIXe siècle.
 Certaines de ces tombes sont légèrement postérieures à 1900 mais relèvent encore stylistiquement de ce XIXe siècle que les historiens font généralement terminer pour l'Europe en 1914 (concept de « Long XIXe siècle »).
-Mausolée Goblet d'Alviella
-Le monument le plus important du cimetière est sans conteste l'imposant Mausolée Goblet d'Alviella, édifié entre 1887 et 1889 par l'architecte Adolphe Samyn[P 4] et le sculpteur Georges Houtstont[2],[P 5].
-Mélange d'art hindou, égyptien, grec, omeyyade, etc. il reflète les options philosophiques et les convictions religieuses universalistes de son commanditaire, le comte Eugène Goblet d'Alviella[3] (1846-1925).
-Obélisque Packard-Hilton
-Juste à côté du mausolée Goblet d'Alviella se dresse un obélisque qui constitue le monument funéraire de la famille Packard-Hilton, liée à la famille Goblet d'Alviella par le biais de Margaret Alice Packard, épouse du comte Eugène Goblet d'Alviella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sépultures du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mausolée Goblet d'Alviella</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument le plus important du cimetière est sans conteste l'imposant Mausolée Goblet d'Alviella, édifié entre 1887 et 1889 par l'architecte Adolphe Samyn[P 4] et le sculpteur Georges Houtstont,[P 5].
+Mélange d'art hindou, égyptien, grec, omeyyade, etc. il reflète les options philosophiques et les convictions religieuses universalistes de son commanditaire, le comte Eugène Goblet d'Alviella (1846-1925).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sépultures du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Obélisque Packard-Hilton</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juste à côté du mausolée Goblet d'Alviella se dresse un obélisque qui constitue le monument funéraire de la famille Packard-Hilton, liée à la famille Goblet d'Alviella par le biais de Margaret Alice Packard, épouse du comte Eugène Goblet d'Alviella.
 Par son style égyptien, cet obélisque en granit rose sur un socle de granit gris semble répondre au mausolée, dont un des sphinx est couché à ses pieds.
-La face orientale de l'obélisque est ornée du symbole du dieu égyptien Horus[P 6] qui surmonte également la porte qui donne accès au caveau du mausolée. Ce symbole est constitué d'un disque solaire ailé encadré de deux cobras[4], le cobra femelle (uræus) ayant dans l'antiquité égyptienne pour fonction de protéger le pharaon contre ses ennemis.
+La face orientale de l'obélisque est ornée du symbole du dieu égyptien Horus[P 6] qui surmonte également la porte qui donne accès au caveau du mausolée. Ce symbole est constitué d'un disque solaire ailé encadré de deux cobras, le cobra femelle (uræus) ayant dans l'antiquité égyptienne pour fonction de protéger le pharaon contre ses ennemis.
 Sous ce symbole est gravée l'épitaphe de Joseph Packard, décédé le 16 août 1888 à l'âge de 69 ans :
 « Sacred  
 to the memory of
@@ -577,24 +706,166 @@
 Joseph Packard  
 Died 
 February 12th 1911 aged 76 years »
-Autres sépultures
-Le cimetière abrite plusieurs autres monuments de style éclectique, d'une grande qualité :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sépultures du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres sépultures</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le cimetière abrite plusieurs autres monuments de style éclectique, d'une grande qualité :
 le monument Ceulemans, colonne carrée en pierre bleue (petit granit) ornée de plaques de marbre blanc et surmontée d'un couronnement composé de quatre frontons triangulaires alternant avec quatre acrotères, le tout sommé d'une urne funéraire partiellement voilée ;
 le monument De Broux-Seutin, catafalque en pierre bleue orné d'une frise de palmettes à sa base et d'une couronne funéraire traversée d'une palme sur sa face antérieure, sommé d'un entablement à frise de gouttes portant un cercueil de pierre orné de couronnes funéraires, de rubans et de guirlandes ;
 le monument Demolder-Marchal, de style Renaissance, composé d'un socle en pierre bleue portant quatre colonnettes en granit rose sur lesquelles reposent des arcade cintrées d'où s'élance un toit en pierre en forme de pyramide terminé par un amortissement agrémenté de palmettes ;
-le monument Genard-Demolder, monument complexe composé de trois parties superposées : un socle carré en pierre bleue orné d'arcs en mitre, une colonne carrée ornée de plaques de marbre blanc, un couronnement composé de frontons et d'acrotères très stylisés et, enfin, un obélisque tronqué sommé de frontons courbes et d'une urne funéraire.
-Sépultures du XXe siècle
-Le cimetière abrite également plusieurs sépultures du XXe siècle dignes d'intérêt qui, contrairement à ce que l'on pourrait croire, ne sont pas toutes situées dans la moitié la plus récente du cimetière.
+le monument Genard-Demolder, monument complexe composé de trois parties superposées : un socle carré en pierre bleue orné d'arcs en mitre, une colonne carrée ornée de plaques de marbre blanc, un couronnement composé de frontons et d'acrotères très stylisés et, enfin, un obélisque tronqué sommé de frontons courbes et d'une urne funéraire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sépultures du XXe siècle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le cimetière abrite également plusieurs sépultures du XXe siècle dignes d'intérêt qui, contrairement à ce que l'on pourrait croire, ne sont pas toutes situées dans la moitié la plus récente du cimetière.
 le monument Henricot, monument géométrique en granit rose de style résolument moderne regroupant les membres de la dynastie industrielle Henricot (dont Émile Henricot, fondateur des Usines Émile Henricot) et portant, à sa tête, la petite stèle funéraire de style éclectique de Robert Henricot, fils d'Émile Henricot mort en 1887 à l'âge de sept ans ;
 le monument De Broux de Noirhat, large rectangle couvert de gravier, ceint d'une clôture de colonnes en pierre bleue et terminée par un petit mur orné de plaques en marbre blanc portant un grand crucifix ainsi que les noms d'une vingtaine de noms de membres de la famille De Broux de Noirhat ;
 le monument Pierre De Broux de Noirhat, monument géométrique en pierre bleue adossé au précédent, de style presque Art déco malgré la période tardive (1986);
-le caveau de la famille Barzotti, édicule rectangulaire percé de fenêtres vitrées de forme ovale et d'une porte vitrée encadrée de fines colonnes portant un arc surbaissé, qui abrite la sépulture des parents de Claude Barzotti.
-Carré d'honneur
-Le cimetière abrite un carré d'honneur[5] constitué de plus de 200 tombes de victimes de guerre, d'anciens combattants, de déportés et de résistants de la Première Guerre mondiale et de la Seconde Guerre mondiale.
+le caveau de la famille Barzotti, édicule rectangulaire percé de fenêtres vitrées de forme ovale et d'une porte vitrée encadrée de fines colonnes portant un arc surbaissé, qui abrite la sépulture des parents de Claude Barzotti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Carré d'honneur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière abrite un carré d'honneur constitué de plus de 200 tombes de victimes de guerre, d'anciens combattants, de déportés et de résistants de la Première Guerre mondiale et de la Seconde Guerre mondiale.
 Il ne s'agit pas d'un cimetière militaire mais d'un ensemble de tombes de personnes qui sont décédées pour la plupart bien après les conflits en question.
 Les tombes, disposées sur dix rangées groupées deux par deux, sont toutes identiques : très sobres, elles sont constituées chacune d'une simple plaque verticale en pierre bleue de forme rectangulaire, sommée d'un demi-cercle.
-Symboles et ornements
-Le cimetière regorge de symboles et d'ornements : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Symboles et ornements</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le cimetière regorge de symboles et d'ornements : 
 symboles chrétiens, comme la croix ou le chrisme ;
 symboles de la mort, comme la colonne brisée ou l'urne funéraire ;
 les mains des époux unies à jamais dans la pierre, qui prolongent symboliquement leur union par-delà la mort ;
@@ -603,31 +874,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Court-Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Court-Saint-%C3%89tienne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Famille Goblet d'Alviella :
 Albert Joseph Goblet, comte d'Alviella (1790-1873) ;
